--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -86,7 +86,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.404781</t>
+    <t>0.279194</t>
   </si>
   <si>
     <t>pass</t>
@@ -107,13 +107,13 @@
     <t>183.234.57.139</t>
   </si>
   <si>
-    <t>1.14152</t>
+    <t>5.342426</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '119.145.82.139', 'url': 'https://httpbin.org/post'}</t>
+    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '120.237.99.67', 'url': 'https://httpbin.org/post'}</t>
   </si>
 </sst>
 </file>
